--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nawaz\Downloads\New folder (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EEC9D5-1F92-493A-BB97-572345E40865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EAEC37-041F-4636-9EFF-15CA9064063C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{925CF2BE-7A75-4A5D-8D36-398502358E0E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="93">
   <si>
     <t>Name</t>
   </si>
@@ -72,13 +72,238 @@
     <t>Demonstrating_Knowledge_of_Student_Assessments</t>
   </si>
   <si>
-    <t>N1020</t>
-  </si>
-  <si>
-    <t>Nawaz</t>
-  </si>
-  <si>
-    <t>Cluster 1</t>
+    <t>C12023001</t>
+  </si>
+  <si>
+    <t>C12023002</t>
+  </si>
+  <si>
+    <t>C12023003</t>
+  </si>
+  <si>
+    <t>C12023004</t>
+  </si>
+  <si>
+    <t>C12023005</t>
+  </si>
+  <si>
+    <t>C12023006</t>
+  </si>
+  <si>
+    <t>C12023007</t>
+  </si>
+  <si>
+    <t>C12023008</t>
+  </si>
+  <si>
+    <t>C12023009</t>
+  </si>
+  <si>
+    <t>C12023010</t>
+  </si>
+  <si>
+    <t>C12023011</t>
+  </si>
+  <si>
+    <t>C12023012</t>
+  </si>
+  <si>
+    <t>C12023013</t>
+  </si>
+  <si>
+    <t>C12023014</t>
+  </si>
+  <si>
+    <t>C12023015</t>
+  </si>
+  <si>
+    <t>C12023016</t>
+  </si>
+  <si>
+    <t>C12023017</t>
+  </si>
+  <si>
+    <t>C12023018</t>
+  </si>
+  <si>
+    <t>C12023019</t>
+  </si>
+  <si>
+    <t>C12023020</t>
+  </si>
+  <si>
+    <t>C12023021</t>
+  </si>
+  <si>
+    <t>C12023022</t>
+  </si>
+  <si>
+    <t>C12023023</t>
+  </si>
+  <si>
+    <t>C12023024</t>
+  </si>
+  <si>
+    <t>C12023025</t>
+  </si>
+  <si>
+    <t>C12023026</t>
+  </si>
+  <si>
+    <t>C12023027</t>
+  </si>
+  <si>
+    <t>C12023028</t>
+  </si>
+  <si>
+    <t>C12023029</t>
+  </si>
+  <si>
+    <t>C12023030</t>
+  </si>
+  <si>
+    <t>C12023031</t>
+  </si>
+  <si>
+    <t>C12023032</t>
+  </si>
+  <si>
+    <t>C12023033</t>
+  </si>
+  <si>
+    <t>C12023034</t>
+  </si>
+  <si>
+    <t>C12023035</t>
+  </si>
+  <si>
+    <t>C12023036</t>
+  </si>
+  <si>
+    <t>Shaziya taj</t>
+  </si>
+  <si>
+    <t>Shyma choudhury</t>
+  </si>
+  <si>
+    <t>Khaleda yasmin barbhuiya</t>
+  </si>
+  <si>
+    <t>Nazrina siddika Barbhuiya</t>
+  </si>
+  <si>
+    <t>Sahima Khanam Choudhury</t>
+  </si>
+  <si>
+    <t>Nazmin Akthar Barlaskar</t>
+  </si>
+  <si>
+    <t>Lucky J B Barbhuiya</t>
+  </si>
+  <si>
+    <t>Ayesha Barbhuiya</t>
+  </si>
+  <si>
+    <t>Ruhina Aktea Laskar</t>
+  </si>
+  <si>
+    <t>Sahanara Parbin</t>
+  </si>
+  <si>
+    <t>Mumsad sultana</t>
+  </si>
+  <si>
+    <t>Naeema Begam Laskar</t>
+  </si>
+  <si>
+    <t>Juma Laskar</t>
+  </si>
+  <si>
+    <t>Sagofana sakia barbhuiya</t>
+  </si>
+  <si>
+    <t>Parveen Rahaman</t>
+  </si>
+  <si>
+    <t>Ayesha Siddika Shah</t>
+  </si>
+  <si>
+    <t>Rangila Khatun</t>
+  </si>
+  <si>
+    <t>Samsunnhar Khatun</t>
+  </si>
+  <si>
+    <t>Ansarun Nesha</t>
+  </si>
+  <si>
+    <t>Jahanara Khatun</t>
+  </si>
+  <si>
+    <t>Shraboni bhattacharjee</t>
+  </si>
+  <si>
+    <t>Ifrah Eram</t>
+  </si>
+  <si>
+    <t>Tartila Khatun</t>
+  </si>
+  <si>
+    <t>Kankana Mondal</t>
+  </si>
+  <si>
+    <t>Abudarda Sardar</t>
+  </si>
+  <si>
+    <t>Suhana khatun</t>
+  </si>
+  <si>
+    <t>Monoara khatun</t>
+  </si>
+  <si>
+    <t>Jahanara khatoon</t>
+  </si>
+  <si>
+    <t>Noufeena</t>
+  </si>
+  <si>
+    <t>Sarvari</t>
+  </si>
+  <si>
+    <t>Sana firdose</t>
+  </si>
+  <si>
+    <t>Sameera</t>
+  </si>
+  <si>
+    <t>Sufiya</t>
+  </si>
+  <si>
+    <t>Moumita Khatun</t>
+  </si>
+  <si>
+    <t>Rimi Sultana Laskar</t>
+  </si>
+  <si>
+    <t>Cluster-1</t>
+  </si>
+  <si>
+    <t>Xcel</t>
+  </si>
+  <si>
+    <t>Al Noor Public School</t>
+  </si>
+  <si>
+    <t>Sahan International School</t>
+  </si>
+  <si>
+    <t>Kids Care Academy</t>
+  </si>
+  <si>
+    <t>M S Academy</t>
+  </si>
+  <si>
+    <t>Nafees Public School</t>
   </si>
 </sst>
 </file>
@@ -430,30 +655,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2296F58-3AF8-44F4-B16F-D02D5BFFFE9B}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="30.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -507,46 +715,1691 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>22</v>
+      </c>
+      <c r="H2">
+        <v>11</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>25</v>
+      </c>
+      <c r="L2">
+        <v>18</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>119</v>
+      </c>
+      <c r="O2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <v>14</v>
+      </c>
+      <c r="M3">
+        <v>10</v>
+      </c>
+      <c r="N3">
+        <v>96</v>
+      </c>
+      <c r="O3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>21</v>
+      </c>
+      <c r="H4">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>16</v>
+      </c>
+      <c r="L4">
+        <v>14</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <v>109</v>
+      </c>
+      <c r="O4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>16</v>
+      </c>
+      <c r="L5">
+        <v>15</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <v>87</v>
+      </c>
+      <c r="O5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>22</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="K6">
+        <v>21</v>
+      </c>
+      <c r="L6">
+        <v>13</v>
+      </c>
+      <c r="M6">
+        <v>10</v>
+      </c>
+      <c r="N6">
+        <v>99</v>
+      </c>
+      <c r="O6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>24</v>
+      </c>
+      <c r="H7">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>15</v>
+      </c>
+      <c r="K7">
+        <v>19</v>
+      </c>
+      <c r="L7">
+        <v>14</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <v>124</v>
+      </c>
+      <c r="O7">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>23</v>
+      </c>
+      <c r="H8">
+        <v>11</v>
+      </c>
+      <c r="I8">
+        <v>9</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <v>22</v>
+      </c>
+      <c r="L8">
+        <v>17</v>
+      </c>
+      <c r="M8">
+        <v>10</v>
+      </c>
+      <c r="N8">
+        <v>120</v>
+      </c>
+      <c r="O8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>23</v>
+      </c>
+      <c r="H9">
+        <v>11</v>
+      </c>
+      <c r="I9">
+        <v>9</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>14</v>
+      </c>
+      <c r="L9">
+        <v>14</v>
+      </c>
+      <c r="M9">
+        <v>10</v>
+      </c>
+      <c r="N9">
+        <v>109</v>
+      </c>
+      <c r="O9">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>23</v>
+      </c>
+      <c r="H10">
+        <v>11</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <v>15</v>
+      </c>
+      <c r="M10">
+        <v>10</v>
+      </c>
+      <c r="N10">
+        <v>100</v>
+      </c>
+      <c r="O10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>24</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>9</v>
+      </c>
+      <c r="L11">
+        <v>15</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <v>88</v>
+      </c>
+      <c r="O11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>23</v>
+      </c>
+      <c r="H12">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>9</v>
+      </c>
+      <c r="L12">
+        <v>15</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <v>105</v>
+      </c>
+      <c r="O12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>17</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="H13">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>7</v>
+      </c>
+      <c r="K13">
+        <v>12</v>
+      </c>
+      <c r="L13">
+        <v>13</v>
+      </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
+      <c r="N13">
+        <v>108</v>
+      </c>
+      <c r="O13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>20</v>
+      </c>
+      <c r="H14">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I14">
+        <v>7</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>26</v>
+      </c>
+      <c r="L14">
+        <v>16</v>
+      </c>
+      <c r="M14">
+        <v>9</v>
+      </c>
+      <c r="N14">
+        <v>116</v>
+      </c>
+      <c r="O14">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>17</v>
+      </c>
+      <c r="G15">
+        <v>24</v>
+      </c>
+      <c r="H15">
+        <v>14</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <v>9</v>
+      </c>
+      <c r="L15">
+        <v>14</v>
+      </c>
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15">
+        <v>113</v>
+      </c>
+      <c r="O15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>19</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>16</v>
+      </c>
+      <c r="L16">
+        <v>16</v>
+      </c>
+      <c r="M16">
+        <v>10</v>
+      </c>
+      <c r="N16">
+        <v>105</v>
+      </c>
+      <c r="O16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <v>24</v>
+      </c>
+      <c r="H17">
+        <v>15</v>
+      </c>
+      <c r="I17">
+        <v>9</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>14</v>
+      </c>
+      <c r="L17">
+        <v>17</v>
+      </c>
+      <c r="M17">
+        <v>10</v>
+      </c>
+      <c r="N17">
+        <v>118</v>
+      </c>
+      <c r="O17">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>15</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>8</v>
+      </c>
+      <c r="J18">
+        <v>13</v>
+      </c>
+      <c r="K18">
+        <v>12</v>
+      </c>
+      <c r="L18">
+        <v>13</v>
+      </c>
+      <c r="M18">
+        <v>10</v>
+      </c>
+      <c r="N18">
+        <v>98</v>
+      </c>
+      <c r="O18">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>14</v>
+      </c>
+      <c r="G19">
+        <v>18</v>
+      </c>
+      <c r="H19">
+        <v>8</v>
+      </c>
+      <c r="I19">
+        <v>9</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>10</v>
+      </c>
+      <c r="L19">
+        <v>15</v>
+      </c>
+      <c r="M19">
+        <v>10</v>
+      </c>
+      <c r="N19">
+        <v>93</v>
+      </c>
+      <c r="O19">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>17</v>
+      </c>
+      <c r="H20">
+        <v>8</v>
+      </c>
+      <c r="I20">
+        <v>7</v>
+      </c>
+      <c r="J20">
         <v>3</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K20">
+        <v>13</v>
+      </c>
+      <c r="L20">
+        <v>14</v>
+      </c>
+      <c r="M20">
+        <v>10</v>
+      </c>
+      <c r="N20">
+        <v>88</v>
+      </c>
+      <c r="O20">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>14</v>
+      </c>
+      <c r="G21">
+        <v>16</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21">
+        <v>9</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>10</v>
+      </c>
+      <c r="L21">
+        <v>13</v>
+      </c>
+      <c r="M21">
+        <v>10</v>
+      </c>
+      <c r="N21">
+        <v>85</v>
+      </c>
+      <c r="O21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>18</v>
+      </c>
+      <c r="G22">
+        <v>22</v>
+      </c>
+      <c r="H22">
+        <v>12</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>18</v>
+      </c>
+      <c r="L22">
+        <v>8</v>
+      </c>
+      <c r="M22">
+        <v>10</v>
+      </c>
+      <c r="N22">
+        <v>106</v>
+      </c>
+      <c r="O22">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>18</v>
+      </c>
+      <c r="G23">
+        <v>22</v>
+      </c>
+      <c r="H23">
+        <v>13</v>
+      </c>
+      <c r="I23">
+        <v>10</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>18</v>
+      </c>
+      <c r="L23">
+        <v>11</v>
+      </c>
+      <c r="M23">
+        <v>10</v>
+      </c>
+      <c r="N23">
+        <v>110</v>
+      </c>
+      <c r="O23">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>18</v>
+      </c>
+      <c r="G24">
+        <v>22</v>
+      </c>
+      <c r="H24">
+        <v>13</v>
+      </c>
+      <c r="I24">
+        <v>10</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>15</v>
+      </c>
+      <c r="L24">
+        <v>14</v>
+      </c>
+      <c r="M24">
+        <v>10</v>
+      </c>
+      <c r="N24">
+        <v>110</v>
+      </c>
+      <c r="O24">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>18</v>
+      </c>
+      <c r="G25">
+        <v>22</v>
+      </c>
+      <c r="H25">
+        <v>13</v>
+      </c>
+      <c r="I25">
+        <v>10</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>14</v>
+      </c>
+      <c r="L25">
         <v>4</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M25">
+        <v>10</v>
+      </c>
+      <c r="N25">
+        <v>99</v>
+      </c>
+      <c r="O25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <v>20</v>
+      </c>
+      <c r="G26">
+        <v>24</v>
+      </c>
+      <c r="H26">
+        <v>15</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>19</v>
+      </c>
+      <c r="L26">
+        <v>9</v>
+      </c>
+      <c r="M26">
+        <v>10</v>
+      </c>
+      <c r="N26">
+        <v>116</v>
+      </c>
+      <c r="O26">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>19</v>
+      </c>
+      <c r="G27">
+        <v>22</v>
+      </c>
+      <c r="H27">
+        <v>13</v>
+      </c>
+      <c r="I27">
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>20</v>
+      </c>
+      <c r="L27">
+        <v>8</v>
+      </c>
+      <c r="M27">
+        <v>10</v>
+      </c>
+      <c r="N27">
+        <v>110</v>
+      </c>
+      <c r="O27">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>17</v>
+      </c>
+      <c r="G28">
+        <v>22</v>
+      </c>
+      <c r="H28">
+        <v>13</v>
+      </c>
+      <c r="I28">
+        <v>10</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>19</v>
+      </c>
+      <c r="L28">
+        <v>8</v>
+      </c>
+      <c r="M28">
+        <v>10</v>
+      </c>
+      <c r="N28">
+        <v>107</v>
+      </c>
+      <c r="O28">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29">
+        <v>7</v>
+      </c>
+      <c r="F29">
+        <v>20</v>
+      </c>
+      <c r="G29">
+        <v>23</v>
+      </c>
+      <c r="H29">
+        <v>9</v>
+      </c>
+      <c r="I29">
+        <v>10</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>19</v>
+      </c>
+      <c r="L29">
+        <v>6</v>
+      </c>
+      <c r="M29">
+        <v>10</v>
+      </c>
+      <c r="N29">
+        <v>105</v>
+      </c>
+      <c r="O29">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30">
+        <v>7</v>
+      </c>
+      <c r="F30">
+        <v>19</v>
+      </c>
+      <c r="G30">
+        <v>19</v>
+      </c>
+      <c r="H30">
+        <v>12</v>
+      </c>
+      <c r="I30">
+        <v>9</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <v>26</v>
+      </c>
+      <c r="L30">
         <v>5</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M30">
+        <v>9</v>
+      </c>
+      <c r="N30">
+        <v>108</v>
+      </c>
+      <c r="O30">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
+      </c>
+      <c r="G31">
+        <v>22</v>
+      </c>
+      <c r="H31">
+        <v>11</v>
+      </c>
+      <c r="I31">
+        <v>8</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>15</v>
+      </c>
+      <c r="L31">
+        <v>4</v>
+      </c>
+      <c r="M31">
+        <v>8</v>
+      </c>
+      <c r="N31">
+        <v>83</v>
+      </c>
+      <c r="O31">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32">
         <v>6</v>
       </c>
-      <c r="N2">
-        <v>20</v>
-      </c>
-      <c r="O2">
-        <v>15</v>
+      <c r="F32">
+        <v>13</v>
+      </c>
+      <c r="G32">
+        <v>24</v>
+      </c>
+      <c r="H32">
+        <v>14</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>27</v>
+      </c>
+      <c r="L32">
+        <v>11</v>
+      </c>
+      <c r="M32">
+        <v>10</v>
+      </c>
+      <c r="N32">
+        <v>117</v>
+      </c>
+      <c r="O32">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>16</v>
+      </c>
+      <c r="G33">
+        <v>24</v>
+      </c>
+      <c r="H33">
+        <v>14</v>
+      </c>
+      <c r="I33">
+        <v>10</v>
+      </c>
+      <c r="J33">
+        <v>10</v>
+      </c>
+      <c r="K33">
+        <v>19</v>
+      </c>
+      <c r="L33">
+        <v>10</v>
+      </c>
+      <c r="M33">
+        <v>10</v>
+      </c>
+      <c r="N33">
+        <v>118</v>
+      </c>
+      <c r="O33">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34">
+        <v>6</v>
+      </c>
+      <c r="F34">
+        <v>13</v>
+      </c>
+      <c r="G34">
+        <v>17</v>
+      </c>
+      <c r="H34">
+        <v>9</v>
+      </c>
+      <c r="I34">
+        <v>7</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <v>27</v>
+      </c>
+      <c r="L34">
+        <v>11</v>
+      </c>
+      <c r="M34">
+        <v>10</v>
+      </c>
+      <c r="N34">
+        <v>102</v>
+      </c>
+      <c r="O34">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35">
+        <v>7</v>
+      </c>
+      <c r="F35">
+        <v>19</v>
+      </c>
+      <c r="G35">
+        <v>19</v>
+      </c>
+      <c r="H35">
+        <v>12</v>
+      </c>
+      <c r="I35">
+        <v>9</v>
+      </c>
+      <c r="J35">
+        <v>14</v>
+      </c>
+      <c r="K35">
+        <v>5</v>
+      </c>
+      <c r="L35">
+        <v>4</v>
+      </c>
+      <c r="M35">
+        <v>8</v>
+      </c>
+      <c r="N35">
+        <v>97</v>
+      </c>
+      <c r="O35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36">
+        <v>6</v>
+      </c>
+      <c r="F36">
+        <v>15</v>
+      </c>
+      <c r="G36">
+        <v>9</v>
+      </c>
+      <c r="H36">
+        <v>14</v>
+      </c>
+      <c r="I36">
+        <v>10</v>
+      </c>
+      <c r="J36">
+        <v>15</v>
+      </c>
+      <c r="K36">
+        <v>14</v>
+      </c>
+      <c r="L36">
+        <v>14</v>
+      </c>
+      <c r="M36">
+        <v>10</v>
+      </c>
+      <c r="N36">
+        <v>107</v>
+      </c>
+      <c r="O36">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37">
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <v>11</v>
+      </c>
+      <c r="G37">
+        <v>19</v>
+      </c>
+      <c r="H37">
+        <v>15</v>
+      </c>
+      <c r="I37">
+        <v>9</v>
+      </c>
+      <c r="J37">
+        <v>13</v>
+      </c>
+      <c r="K37">
+        <v>14</v>
+      </c>
+      <c r="L37">
+        <v>14</v>
+      </c>
+      <c r="M37">
+        <v>10</v>
+      </c>
+      <c r="N37">
+        <v>112</v>
+      </c>
+      <c r="O37">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nawaz\Desktop\results\hauna\New Result Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E687495-DFA3-45B6-AC3D-A5AFCDCCE75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD02C45-E0A3-4D25-9A69-85FE581808EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -408,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
